--- a/DataDrivenFrameWork/testData/126邮箱联系人.xlsx
+++ b/DataDrivenFrameWork/testData/126邮箱联系人.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Python_Code\Book_code\DataDrivenFrameWork\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\GitFile\Frame\DataDrivenFrameWork\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD5F5C-A7BA-4A41-B03E-6F4DDCDD2546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="4128"/>
+    <workbookView xWindow="1152" yWindow="468" windowWidth="20664" windowHeight="12492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="126账号" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -43,12 +44,12 @@
     <t>zjj_test@163.com</t>
   </si>
   <si>
-    <t>Email9668</t>
-  </si>
-  <si>
     <t>联系人</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>联系人姓名</t>
   </si>
   <si>
@@ -73,7 +74,7 @@
     <t>zzzz</t>
   </si>
   <si>
-    <t>643660274@qq.coom</t>
+    <t>643660274@qq.com</t>
   </si>
   <si>
     <t>是</t>
@@ -82,21 +83,17 @@
     <t>常联系人</t>
   </si>
   <si>
-    <t>643660274@qq.com</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>2020 -08 -17 09:09:10</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +107,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008B00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -140,9 +143,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,11 +427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -452,36 +456,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -521,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -541,14 +548,21 @@
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>